--- a/xlsx/冰球_intext.xlsx
+++ b/xlsx/冰球_intext.xlsx
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%B0%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際冰球總會</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_冰球</t>
+    <t>国际冰球总会</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_冰球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%9A%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>團隊運動</t>
+    <t>团队运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>冬季運動</t>
+    <t>冬季运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>冰球場</t>
+    <t>冰球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/1920%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1920年夏季奧林匹克運動會</t>
+    <t>1920年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會</t>
+    <t>夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1924%E5%B9%B4%E5%86%AC%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1924年冬季奧林匹克運動會</t>
+    <t>1924年冬季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>冬季奧林匹克運動會</t>
+    <t>冬季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E9%83%BD%E7%81%B5%E5%86%AC%E5%A5%A5%E4%BC%9A</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9B%9B%E5%A4%A7%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>北美四大職業運動</t>
+    <t>北美四大职业运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%8B%E6%A3%8D%E7%90%83</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%8A%80</t>
   </si>
   <si>
-    <t>國技</t>
+    <t>国技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
+    <t>蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
+    <t>波希米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%BF%AA%E7%90%83</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>大陸冰球聯盟</t>
+    <t>大陆冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%86%B0%E7%90%83%E8%81%94%E8%B5%9B</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>中華冰球聯盟</t>
+    <t>中华冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83%E6%AF%94%E8%B5%9B%E4%B8%AD%E7%9A%84%E6%96%97%E6%AE%B4</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A5%A7%E9%81%8B%E6%9C%83%E6%AF%94%E8%B3%BD%E9%A0%85%E7%9B%AE</t>
   </si>
   <si>
-    <t>Template talk-奧運會比賽項目</t>
+    <t>Template talk-奥运会比赛项目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A%E9%A1%B9%E7%9B%AE</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E7%BE%BD%E6%AF%9B%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會羽毛球比賽</t>
+    <t>夏季奥林匹克运动会羽毛球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%AF%AE%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E6%B2%99%E7%81%98%E6%8E%92%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會沙灘排球比賽</t>
+    <t>夏季奥林匹克运动会沙滩排球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E6%8B%B3%E5%87%BB%E6%AF%94%E8%B5%9B</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E7%B6%B2%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會網球比賽</t>
+    <t>夏季奥林匹克运动会网球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E9%93%81%E4%BA%BA%E4%B8%89%E9%A1%B9%E6%AF%94%E8%B5%9B</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E4%B8%83%E4%BA%BA%E5%88%B6%E6%A9%84%E6%AC%96%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季奧林匹克運動會七人制橄欖球比賽</t>
+    <t>夏季奥林匹克运动会七人制橄榄球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E9%AB%98%E5%B1%B1%E6%BB%91%E9%9B%AA%E6%AF%94%E8%B5%9B</t>
@@ -515,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E5%8C%97%E6%AD%90%E6%B7%B7%E5%90%88%E5%BC%8F%E6%BB%91%E9%9B%AA%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>冬季奧林匹克運動會北歐混合式滑雪比賽</t>
+    <t>冬季奥林匹克运动会北欧混合式滑雪比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E7%9F%AD%E9%81%93%E7%AB%B6%E9%80%9F%E6%BB%91%E5%86%B0%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>冬季奧林匹克運動會短道競速滑冰比賽</t>
+    <t>冬季奥林匹克运动会短道竞速滑冰比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E4%BF%AF%E5%BC%8F%E5%86%B0%E6%A9%87%E6%AF%94%E8%B5%9B</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/冰球_intext.xlsx
+++ b/xlsx/冰球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國際冰球總會</t>
   </si>
   <si>
-    <t>政策_政策_美國_冰球</t>
+    <t>体育运动_体育运动_冰球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%9A%8A%E9%81%8B%E5%8B%95</t>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1379,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1669,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1785,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1843,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1872,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1930,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2017,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2104,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2249,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2336,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2365,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2423,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2539,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2568,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2597,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2626,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2771,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2800,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2829,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2858,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2916,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3003,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3148,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3177,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3206,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3235,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3293,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3322,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3409,7 +3409,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3438,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3467,7 +3467,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3496,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3612,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3699,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3728,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
